--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2860.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2860.xlsx
@@ -354,7 +354,7 @@
         <v>2.278618773744074</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.28299945581091</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2860.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2860.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.192574308067448</v>
+        <v>1.257083535194397</v>
       </c>
       <c r="B1">
-        <v>2.278618773744074</v>
+        <v>1.429612159729004</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.683853626251221</v>
       </c>
       <c r="D1">
-        <v>2.28299945581091</v>
+        <v>3.520485401153564</v>
       </c>
       <c r="E1">
-        <v>1.213827230338865</v>
+        <v>1.008988261222839</v>
       </c>
     </row>
   </sheetData>
